--- a/CHECON.PCB Production Files/CHECON.PCB.ECO.xlsx
+++ b/CHECON.PCB Production Files/CHECON.PCB.ECO.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="2">
-        <v>42054</v>
+        <v>42058</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
